--- a/dtpu_configurations/only_integer16/50mhz/mxu_7x7/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_7x7/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.02105160802602768</v>
+        <v>0.021786099299788475</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.009174354374408722</v>
+        <v>0.00978164840489626</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007034055422991514</v>
+        <v>0.007128716912120581</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.006463548634201288</v>
+        <v>0.006709726061671972</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.3914199371356517E-4</v>
+        <v>2.6360771153122187E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0022334761451929808</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12690415978431702</v>
+        <v>0.12743115425109863</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4328001737594604</v>
+        <v>1.4351342916488647</v>
       </c>
     </row>
   </sheetData>
